--- a/Design/기획서/시나리오/시나리오기획서V1.0.0.xlsx
+++ b/Design/기획서/시나리오/시나리오기획서V1.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Shindam\Design\기획서\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216333A-E979-4150-A5E9-174BA8EF8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5C6F1-9739-4037-857B-7762BC83752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{615B9377-502F-44FE-9D14-AEBB068F57FE}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>나레이션 안끄냐?</t>
   </si>
   <si>
-    <t>아, 할머니 안녕하세요 ㅎㅎ</t>
-  </si>
-  <si>
     <t>에휴..김과장 이자식..</t>
   </si>
   <si>
@@ -319,12 +316,15 @@
   <si>
     <t>Image</t>
   </si>
+  <si>
+    <t>아# 할머니 안녕하세요 ㅎㅎ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,12 +354,6 @@
       <name val="한수원 한돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -500,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +534,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,6 +575,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -573,44 +590,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2546,20 +2525,20 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2575,20 +2554,20 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2604,20 +2583,20 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2633,20 +2612,20 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,20 +2879,20 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2931,18 +2910,18 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2960,18 +2939,18 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2989,18 +2968,18 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -3018,18 +2997,18 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -3047,18 +3026,18 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -3076,18 +3055,18 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -3819,22 +3798,22 @@
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
@@ -3850,20 +3829,20 @@
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -4575,22 +4554,22 @@
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -4606,20 +4585,20 @@
     </row>
     <row r="29" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="33"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -4635,20 +4614,20 @@
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4664,20 +4643,20 @@
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="33"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -4693,20 +4672,20 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -4722,20 +4701,20 @@
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -4751,20 +4730,20 @@
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -4780,20 +4759,20 @@
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -4809,20 +4788,20 @@
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5259,7 +5238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B25512-8CEE-44CA-A485-6D2ABDA05995}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5305,18 +5286,18 @@
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -5333,7 +5314,7 @@
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5341,13 +5322,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>5</v>
@@ -5355,13 +5336,13 @@
       <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="J3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -5378,35 +5359,35 @@
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="J4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -5423,7 +5404,7 @@
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="15">
         <v>800000</v>
       </c>
@@ -5431,25 +5412,25 @@
         <v>11</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -5466,7 +5447,7 @@
     </row>
     <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="15">
         <v>800001</v>
       </c>
@@ -5474,25 +5455,25 @@
         <v>11</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -5509,33 +5490,33 @@
     </row>
     <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="15">
         <v>800002</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -5552,7 +5533,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="15">
         <v>800003</v>
       </c>
@@ -5560,25 +5541,25 @@
         <v>11</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -5595,7 +5576,7 @@
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="15">
         <v>800004</v>
       </c>
@@ -5603,25 +5584,25 @@
         <v>11</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -5638,7 +5619,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="15">
         <v>800005</v>
       </c>
@@ -5646,25 +5627,25 @@
         <v>11</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5681,7 +5662,7 @@
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="15">
         <v>800006</v>
       </c>
@@ -5689,25 +5670,25 @@
         <v>11</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -5724,7 +5705,7 @@
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="15">
         <v>800007</v>
       </c>
@@ -5732,25 +5713,25 @@
         <v>11</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5767,33 +5748,33 @@
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="15">
         <v>800008</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -5810,33 +5791,33 @@
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="15">
         <v>800009</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5853,7 +5834,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="15">
         <v>800010</v>
       </c>
@@ -5861,25 +5842,25 @@
         <v>11</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="36" t="s">
-        <v>21</v>
+      <c r="F15" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -5896,33 +5877,33 @@
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="15">
         <v>800011</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="36" t="s">
-        <v>22</v>
+      <c r="F16" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5939,7 +5920,7 @@
     </row>
     <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="15">
         <v>800012</v>
       </c>
@@ -5947,25 +5928,25 @@
         <v>11</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="36" t="s">
-        <v>23</v>
+      <c r="F17" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -5982,33 +5963,33 @@
     </row>
     <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="15">
         <v>800013</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="36" t="s">
-        <v>26</v>
+      <c r="F18" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -6025,33 +6006,33 @@
     </row>
     <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="15">
         <v>800014</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="36" t="s">
-        <v>27</v>
+      <c r="F19" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -6068,7 +6049,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="15">
         <v>800015</v>
       </c>
@@ -6076,25 +6057,25 @@
         <v>11</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="36" t="s">
-        <v>33</v>
+      <c r="F20" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -6111,33 +6092,33 @@
     </row>
     <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="15">
         <v>800016</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="36" t="s">
-        <v>28</v>
+      <c r="F21" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6154,33 +6135,33 @@
     </row>
     <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="15">
         <v>800017</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="36" t="s">
-        <v>29</v>
+      <c r="F22" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6197,33 +6178,33 @@
     </row>
     <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="15">
         <v>800018</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="36" t="s">
-        <v>30</v>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6240,33 +6221,33 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="15">
         <v>800019</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="37" t="s">
-        <v>31</v>
+      <c r="F24" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -6283,33 +6264,33 @@
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="15">
         <v>800020</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="37" t="s">
-        <v>32</v>
+      <c r="F25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -6326,7 +6307,7 @@
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="15">
         <v>800021</v>
       </c>
@@ -6334,25 +6315,25 @@
         <v>11</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="35" t="s">
-        <v>40</v>
+      <c r="F26" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -6369,33 +6350,33 @@
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="31"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="15">
         <v>800022</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="35" t="s">
-        <v>34</v>
+      <c r="F27" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -6412,33 +6393,33 @@
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="31"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="15">
         <v>800023</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="35" t="s">
-        <v>35</v>
+      <c r="F28" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6455,33 +6436,33 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="15">
         <v>800024</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="35" t="s">
-        <v>36</v>
+      <c r="F29" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="15">
         <v>0</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -6498,33 +6479,33 @@
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="15">
         <v>800025</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="35" t="s">
-        <v>37</v>
+      <c r="F30" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -6541,7 +6522,7 @@
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="31"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="15">
         <v>800026</v>
       </c>
@@ -6549,25 +6530,25 @@
         <v>11</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="35" t="s">
-        <v>38</v>
+      <c r="F31" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -6584,33 +6565,33 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="31"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="15">
         <v>800027</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="35" t="s">
-        <v>39</v>
+      <c r="F32" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6627,7 +6608,7 @@
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="31"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="15">
         <v>800028</v>
       </c>
@@ -6635,25 +6616,25 @@
         <v>11</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="35" t="s">
-        <v>41</v>
+      <c r="F33" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -6670,7 +6651,7 @@
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="31"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="15">
         <v>800029</v>
       </c>
@@ -6678,25 +6659,25 @@
         <v>11</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="35" t="s">
-        <v>42</v>
+      <c r="F34" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G34" s="15">
         <v>0</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -6713,33 +6694,33 @@
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="15">
         <v>800030</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="35" t="s">
-        <v>43</v>
+      <c r="F35" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -6756,7 +6737,7 @@
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="15">
         <v>800031</v>
       </c>
@@ -6764,25 +6745,25 @@
         <v>11</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="35" t="s">
-        <v>44</v>
+      <c r="F36" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="G36" s="15">
         <v>0</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6799,33 +6780,33 @@
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="15">
         <v>800032</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="35" t="s">
-        <v>45</v>
+      <c r="F37" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G37" s="15">
         <v>0</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="35" t="b">
+        <v>24</v>
+      </c>
+      <c r="J37" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6842,7 +6823,7 @@
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="15">
         <v>800033</v>
       </c>
@@ -6850,25 +6831,25 @@
         <v>11</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="35" t="s">
-        <v>46</v>
+      <c r="F38" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="G38" s="15">
         <v>0</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -6885,33 +6866,33 @@
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="15">
         <v>800034</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="35" t="s">
-        <v>47</v>
+      <c r="F39" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -6928,33 +6909,33 @@
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="38">
+      <c r="B40" s="10"/>
+      <c r="C40" s="21">
         <v>800035</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="35" t="s">
-        <v>48</v>
+      <c r="F40" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -6971,7 +6952,7 @@
     </row>
     <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="15">
         <v>800036</v>
       </c>
@@ -6979,25 +6960,25 @@
         <v>11</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="35" t="s">
-        <v>49</v>
+      <c r="F41" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -7014,33 +6995,33 @@
     </row>
     <row r="42" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="15">
         <v>800037</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="35" t="s">
-        <v>50</v>
+      <c r="F42" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G42" s="15">
         <v>0</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -7057,33 +7038,33 @@
     </row>
     <row r="43" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="38">
+      <c r="B43" s="10"/>
+      <c r="C43" s="21">
         <v>800038</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="35" t="s">
-        <v>51</v>
+      <c r="F43" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -7100,33 +7081,33 @@
     </row>
     <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="31"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="15">
         <v>800039</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="37" t="s">
-        <v>52</v>
+      <c r="F44" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="G44" s="15">
         <v>0</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -7143,7 +7124,7 @@
     </row>
     <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="31"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="15">
         <v>800040</v>
       </c>
@@ -7151,25 +7132,25 @@
         <v>11</v>
       </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="38">
+      <c r="F45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="21">
         <v>1</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="21">
         <v>800042</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -7186,22 +7167,22 @@
     </row>
     <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="38">
+      <c r="B46" s="1"/>
+      <c r="C46" s="21">
         <v>800041</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="39" t="s">
-        <v>62</v>
+      <c r="F46" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G46" s="15">
         <v>1</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="15">
         <v>800043</v>
@@ -7209,10 +7190,10 @@
       <c r="J46" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -7229,33 +7210,33 @@
     </row>
     <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="32"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="15">
         <v>800042</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="39" t="s">
-        <v>55</v>
+      <c r="F47" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -7272,33 +7253,33 @@
     </row>
     <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="32"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="15">
         <v>800043</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="15"/>
-      <c r="F48" s="42" t="s">
-        <v>61</v>
+      <c r="F48" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G48" s="15">
         <v>0</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -7315,33 +7296,33 @@
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="38">
+      <c r="B49" s="1"/>
+      <c r="C49" s="21">
         <v>800044</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="39" t="s">
-        <v>56</v>
+      <c r="F49" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -7365,22 +7346,22 @@
         <v>11</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="39" t="s">
-        <v>57</v>
+      <c r="F50" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G50" s="15">
         <v>0</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="32"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -7406,17 +7387,17 @@
         <v>11</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="39" t="s">
-        <v>58</v>
+      <c r="F51" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" s="15" t="b">
         <v>0</v>
@@ -7424,38 +7405,37 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="38">
+      <c r="C52" s="21">
         <v>800047</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="15"/>
-      <c r="F52" s="39" t="s">
-        <v>60</v>
+      <c r="F52" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G52" s="15">
         <v>0</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="43"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
